--- a/attendance_log.xlsx
+++ b/attendance_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,6 +1841,94 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Vasanth Kumar</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>01:07:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>01:08:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>01:12:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Senthil</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>01:12:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
